--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_24_27.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_24_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1744984.602874047</v>
+        <v>1742440.010179761</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283176</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -659,10 +659,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -674,10 +674,10 @@
         <v>13.09783323005805</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>158.9209832102731</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666373</v>
+        <v>77.08171901666378</v>
       </c>
       <c r="S2" t="n">
         <v>158.7758131900531</v>
@@ -716,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>96.8667131639284</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -738,28 +738,28 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>46.81176613773845</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409147</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265835</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,16 +783,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846316</v>
+        <v>72.4328956284632</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>107.5567297256353</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -801,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>52.21594625443466</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -856,13 +856,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>34.10833718734057</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -902,10 +902,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>12.25188473404938</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>92.85788772760043</v>
+        <v>58.50845131942031</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>23.94240680425952</v>
       </c>
       <c r="S5" t="n">
-        <v>139.4987618372555</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>209.7407415149288</v>
+        <v>209.7407415149289</v>
       </c>
       <c r="U5" t="n">
         <v>251.1015846853496</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>195.916096956704</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -972,28 +972,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>96.47037835246131</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>43.32085084937516</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>44.33060630074797</v>
+        <v>44.33060630074819</v>
       </c>
       <c r="S6" t="n">
-        <v>141.3629830843606</v>
+        <v>141.3629830843607</v>
       </c>
       <c r="T6" t="n">
         <v>193.5852120974427</v>
@@ -1035,13 +1035,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>61.8096970810853</v>
       </c>
       <c r="Y6" t="n">
-        <v>121.7860841249035</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1096,19 +1096,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>36.9111576058918</v>
       </c>
       <c r="R7" t="n">
-        <v>115.7603165166224</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>222.0983299894507</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>72.89889574100741</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>216.1480668197298</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>229.9099569984778</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>178.3567362514618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.87073484362677</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
-        <v>78.1636065770829</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,10 +1184,10 @@
         <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
-        <v>208.0722578696039</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1212,22 +1212,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>38.7513394728273</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>135.5072338470352</v>
       </c>
       <c r="H9" t="n">
-        <v>94.50081326185511</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721423</v>
+        <v>31.66886087721419</v>
       </c>
       <c r="S9" t="n">
         <v>137.5750138932992</v>
@@ -1266,16 +1266,16 @@
         <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
-        <v>166.215964933184</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>100.0073309618757</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1333,13 +1333,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>22.59469128425539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>197.1876907596158</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1351,10 +1351,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>252.3685669536113</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1427,7 +1427,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1528,22 +1528,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229294</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>179.0375859154225</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>153.0347892581641</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1771,19 +1771,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>105.9893107373045</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2002,22 +2002,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>0.8253826161900019</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>162.4016674345629</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>225.709655389038</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2093,10 +2093,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2245,16 +2245,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2296,7 +2296,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0.6452826062342956</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2384,7 +2384,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2476,25 +2476,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>23.62554568141315</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>160.6789846282055</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2567,10 +2567,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2716,22 +2716,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0.8253826161927031</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>94.05355358057977</v>
       </c>
     </row>
     <row r="29">
@@ -2795,7 +2795,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>23.1099832571722</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>1.696776052995119e-12</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>185.3892167411502</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3035,7 +3035,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>141.927332929853</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>61.440130210769</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3247,7 +3247,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3317,7 +3317,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3326,7 +3326,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3436,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3487,10 +3487,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>158.3910158645311</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>31.83025205764215</v>
       </c>
     </row>
     <row r="38">
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3566,7 +3566,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3661,7 +3661,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503973</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3670,13 +3670,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>97.02629574295676</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3749,10 +3749,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G41" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3904,19 +3904,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229299</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>80.9083128260968</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3955,13 +3955,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>211.8172046759427</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3986,7 +3986,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G44" t="n">
         <v>409.8033385187866</v>
@@ -4141,7 +4141,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -4153,7 +4153,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4195,13 +4195,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>90.48716302792829</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>32.84316668127826</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>414.0172523312951</v>
+        <v>322.4426321268585</v>
       </c>
       <c r="C2" t="n">
-        <v>224.5974673148102</v>
+        <v>322.4426321268585</v>
       </c>
       <c r="D2" t="n">
-        <v>35.17768229832529</v>
+        <v>322.4426321268585</v>
       </c>
       <c r="E2" t="n">
-        <v>35.17768229832529</v>
+        <v>322.4426321268585</v>
       </c>
       <c r="F2" t="n">
-        <v>28.23218154912182</v>
+        <v>315.497131377655</v>
       </c>
       <c r="G2" t="n">
-        <v>15.0020469733056</v>
+        <v>302.2669968018388</v>
       </c>
       <c r="H2" t="n">
-        <v>15.0020469733056</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="I2" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678508</v>
+        <v>21.03371160678495</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058969</v>
+        <v>80.81213159058944</v>
       </c>
       <c r="L2" t="n">
         <v>191.8743094079186</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644756</v>
+        <v>347.1218190644754</v>
       </c>
       <c r="N2" t="n">
-        <v>509.495204112383</v>
+        <v>509.4952041123828</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985586</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P2" t="n">
-        <v>734.461172602027</v>
+        <v>734.4611726020263</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652803</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R2" t="n">
-        <v>672.2420264262259</v>
+        <v>672.2420264262252</v>
       </c>
       <c r="S2" t="n">
-        <v>511.862417143344</v>
+        <v>511.8624171433432</v>
       </c>
       <c r="T2" t="n">
-        <v>511.862417143344</v>
+        <v>511.8624171433432</v>
       </c>
       <c r="U2" t="n">
-        <v>511.862417143344</v>
+        <v>511.8624171433432</v>
       </c>
       <c r="V2" t="n">
-        <v>414.0172523312951</v>
+        <v>322.4426321268585</v>
       </c>
       <c r="W2" t="n">
-        <v>414.0172523312951</v>
+        <v>322.4426321268585</v>
       </c>
       <c r="X2" t="n">
-        <v>414.0172523312951</v>
+        <v>322.4426321268585</v>
       </c>
       <c r="Y2" t="n">
-        <v>414.0172523312951</v>
+        <v>322.4426321268585</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>525.6547321810249</v>
+        <v>189.4550762544326</v>
       </c>
       <c r="C3" t="n">
-        <v>525.6547321810249</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D3" t="n">
-        <v>376.7203225197736</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E3" t="n">
-        <v>376.7203225197736</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F3" t="n">
-        <v>329.4357102594317</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G3" t="n">
-        <v>191.8965290818809</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H3" t="n">
-        <v>90.03616812153776</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I3" t="n">
-        <v>30.53661367296051</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024219</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772651</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140248</v>
+        <v>338.7690911140243</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546606</v>
+        <v>512.50005875466</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476352</v>
+        <v>649.2101578476347</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017067</v>
+        <v>739.598998701706</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652803</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R3" t="n">
-        <v>676.9378076264286</v>
+        <v>676.9378076264277</v>
       </c>
       <c r="S3" t="n">
-        <v>525.6547321810249</v>
+        <v>676.9378076264277</v>
       </c>
       <c r="T3" t="n">
-        <v>525.6547321810249</v>
+        <v>568.2946462874021</v>
       </c>
       <c r="U3" t="n">
-        <v>525.6547321810249</v>
+        <v>378.8748612709173</v>
       </c>
       <c r="V3" t="n">
-        <v>525.6547321810249</v>
+        <v>378.8748612709173</v>
       </c>
       <c r="W3" t="n">
-        <v>525.6547321810249</v>
+        <v>378.8748612709173</v>
       </c>
       <c r="X3" t="n">
-        <v>525.6547321810249</v>
+        <v>189.4550762544326</v>
       </c>
       <c r="Y3" t="n">
-        <v>525.6547321810249</v>
+        <v>189.4550762544326</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>67.74542702829011</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C4" t="n">
-        <v>67.74542702829011</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D4" t="n">
-        <v>67.74542702829011</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E4" t="n">
-        <v>67.74542702829011</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F4" t="n">
-        <v>67.74542702829011</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G4" t="n">
-        <v>67.74542702829011</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H4" t="n">
-        <v>67.74542702829011</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230183</v>
+        <v>27.03967056230175</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170729</v>
+        <v>42.98993985170716</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396353</v>
+        <v>66.41847329396334</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702829011</v>
+        <v>49.45491281910415</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702829011</v>
+        <v>49.45491281910415</v>
       </c>
       <c r="R4" t="n">
-        <v>67.74542702829011</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="S4" t="n">
-        <v>67.74542702829011</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="T4" t="n">
-        <v>67.74542702829011</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="U4" t="n">
-        <v>67.74542702829011</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="V4" t="n">
-        <v>67.74542702829011</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="W4" t="n">
-        <v>67.74542702829011</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="X4" t="n">
-        <v>67.74542702829011</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y4" t="n">
-        <v>67.74542702829011</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>533.4632969992052</v>
+        <v>517.0190480290618</v>
       </c>
       <c r="C5" t="n">
-        <v>533.4632969992052</v>
+        <v>517.0190480290618</v>
       </c>
       <c r="D5" t="n">
-        <v>533.4632969992052</v>
+        <v>517.0190480290618</v>
       </c>
       <c r="E5" t="n">
-        <v>147.675044400961</v>
+        <v>517.0190480290618</v>
       </c>
       <c r="F5" t="n">
-        <v>140.7295436517575</v>
+        <v>106.0331432394542</v>
       </c>
       <c r="G5" t="n">
-        <v>128.3539025062531</v>
+        <v>93.65750209394977</v>
       </c>
       <c r="H5" t="n">
-        <v>128.3539025062531</v>
+        <v>93.65750209394977</v>
       </c>
       <c r="I5" t="n">
-        <v>34.55805631675768</v>
+        <v>34.55805631675754</v>
       </c>
       <c r="J5" t="n">
-        <v>111.6705539017221</v>
+        <v>111.6705539017216</v>
       </c>
       <c r="K5" t="n">
-        <v>277.9807166746979</v>
+        <v>277.9807166746964</v>
       </c>
       <c r="L5" t="n">
-        <v>521.2049416030762</v>
+        <v>521.2049416030742</v>
       </c>
       <c r="M5" t="n">
-        <v>823.508193570918</v>
+        <v>823.5081935709146</v>
       </c>
       <c r="N5" t="n">
-        <v>1135.316836582752</v>
+        <v>1135.316836582747</v>
       </c>
       <c r="O5" t="n">
-        <v>1416.413635079239</v>
+        <v>1416.413635079234</v>
       </c>
       <c r="P5" t="n">
-        <v>1621.822248332758</v>
+        <v>1621.822248332752</v>
       </c>
       <c r="Q5" t="n">
-        <v>1727.902815837884</v>
+        <v>1727.902815837877</v>
       </c>
       <c r="R5" t="n">
-        <v>1727.902815837884</v>
+        <v>1703.718566540645</v>
       </c>
       <c r="S5" t="n">
-        <v>1586.994975598232</v>
+        <v>1703.718566540645</v>
       </c>
       <c r="T5" t="n">
-        <v>1375.135640734667</v>
+        <v>1491.85923167708</v>
       </c>
       <c r="U5" t="n">
-        <v>1121.497676406031</v>
+        <v>1238.221267348444</v>
       </c>
       <c r="V5" t="n">
-        <v>1121.497676406031</v>
+        <v>907.1583800048735</v>
       </c>
       <c r="W5" t="n">
-        <v>923.602628975017</v>
+        <v>907.1583800048735</v>
       </c>
       <c r="X5" t="n">
-        <v>923.602628975017</v>
+        <v>907.1583800048735</v>
       </c>
       <c r="Y5" t="n">
-        <v>533.4632969992052</v>
+        <v>517.0190480290618</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>496.7489053910366</v>
+        <v>342.7299209834643</v>
       </c>
       <c r="C6" t="n">
-        <v>322.2958761099096</v>
+        <v>342.7299209834643</v>
       </c>
       <c r="D6" t="n">
-        <v>322.2958761099096</v>
+        <v>193.795511322213</v>
       </c>
       <c r="E6" t="n">
-        <v>322.2958761099096</v>
+        <v>34.55805631675754</v>
       </c>
       <c r="F6" t="n">
-        <v>175.7613181367945</v>
+        <v>34.55805631675754</v>
       </c>
       <c r="G6" t="n">
-        <v>175.7613181367945</v>
+        <v>34.55805631675754</v>
       </c>
       <c r="H6" t="n">
-        <v>78.31649151814673</v>
+        <v>34.55805631675754</v>
       </c>
       <c r="I6" t="n">
-        <v>34.55805631675768</v>
+        <v>34.55805631675754</v>
       </c>
       <c r="J6" t="n">
-        <v>61.66788464787532</v>
+        <v>61.66788464787487</v>
       </c>
       <c r="K6" t="n">
-        <v>186.1577239806063</v>
+        <v>186.1577239806053</v>
       </c>
       <c r="L6" t="n">
-        <v>399.8722171189978</v>
+        <v>399.8722171189961</v>
       </c>
       <c r="M6" t="n">
-        <v>668.6238185223501</v>
+        <v>668.6238185223474</v>
       </c>
       <c r="N6" t="n">
-        <v>958.897120035248</v>
+        <v>958.8971200352444</v>
       </c>
       <c r="O6" t="n">
-        <v>1202.220686228319</v>
+        <v>1202.220686228314</v>
       </c>
       <c r="P6" t="n">
-        <v>1378.176233639508</v>
+        <v>1378.176233639503</v>
       </c>
       <c r="Q6" t="n">
-        <v>1445.878660906549</v>
+        <v>1445.878660906544</v>
       </c>
       <c r="R6" t="n">
-        <v>1401.100270703774</v>
+        <v>1401.100270703768</v>
       </c>
       <c r="S6" t="n">
-        <v>1258.309378699369</v>
+        <v>1258.309378699363</v>
       </c>
       <c r="T6" t="n">
-        <v>1062.768760419124</v>
+        <v>1062.768760419118</v>
       </c>
       <c r="U6" t="n">
-        <v>1062.768760419124</v>
+        <v>1062.768760419118</v>
       </c>
       <c r="V6" t="n">
-        <v>827.6166521873811</v>
+        <v>827.6166521873756</v>
       </c>
       <c r="W6" t="n">
-        <v>827.6166521873811</v>
+        <v>573.379295459174</v>
       </c>
       <c r="X6" t="n">
-        <v>619.7651519818482</v>
+        <v>510.9452580035323</v>
       </c>
       <c r="Y6" t="n">
-        <v>496.7489053910366</v>
+        <v>510.9452580035323</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>34.55805631675768</v>
+        <v>34.55805631675754</v>
       </c>
       <c r="C7" t="n">
-        <v>34.55805631675768</v>
+        <v>34.55805631675754</v>
       </c>
       <c r="D7" t="n">
-        <v>34.55805631675768</v>
+        <v>34.55805631675754</v>
       </c>
       <c r="E7" t="n">
-        <v>34.55805631675768</v>
+        <v>34.55805631675754</v>
       </c>
       <c r="F7" t="n">
-        <v>34.55805631675768</v>
+        <v>34.55805631675754</v>
       </c>
       <c r="G7" t="n">
-        <v>34.55805631675768</v>
+        <v>34.55805631675754</v>
       </c>
       <c r="H7" t="n">
-        <v>34.55805631675768</v>
+        <v>34.55805631675754</v>
       </c>
       <c r="I7" t="n">
-        <v>34.55805631675768</v>
+        <v>34.55805631675754</v>
       </c>
       <c r="J7" t="n">
-        <v>34.55805631675768</v>
+        <v>34.55805631675754</v>
       </c>
       <c r="K7" t="n">
-        <v>64.2406666257469</v>
+        <v>64.24066662574641</v>
       </c>
       <c r="L7" t="n">
-        <v>132.1299861584115</v>
+        <v>132.1299861584106</v>
       </c>
       <c r="M7" t="n">
-        <v>206.9680378347971</v>
+        <v>206.9680378347958</v>
       </c>
       <c r="N7" t="n">
-        <v>287.8841338195366</v>
+        <v>287.8841338195348</v>
       </c>
       <c r="O7" t="n">
-        <v>342.3101561934716</v>
+        <v>342.3101561934695</v>
       </c>
       <c r="P7" t="n">
-        <v>369.8190495858004</v>
+        <v>369.8190495857979</v>
       </c>
       <c r="Q7" t="n">
-        <v>369.8190495858004</v>
+        <v>332.535052004089</v>
       </c>
       <c r="R7" t="n">
-        <v>252.8894369427474</v>
+        <v>332.535052004089</v>
       </c>
       <c r="S7" t="n">
-        <v>252.8894369427474</v>
+        <v>332.535052004089</v>
       </c>
       <c r="T7" t="n">
-        <v>252.8894369427474</v>
+        <v>108.1933045399973</v>
       </c>
       <c r="U7" t="n">
-        <v>252.8894369427474</v>
+        <v>34.55805631675754</v>
       </c>
       <c r="V7" t="n">
-        <v>252.8894369427474</v>
+        <v>34.55805631675754</v>
       </c>
       <c r="W7" t="n">
-        <v>252.8894369427474</v>
+        <v>34.55805631675754</v>
       </c>
       <c r="X7" t="n">
-        <v>252.8894369427474</v>
+        <v>34.55805631675754</v>
       </c>
       <c r="Y7" t="n">
-        <v>34.55805631675768</v>
+        <v>34.55805631675754</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1452.685415533622</v>
+        <v>1005.978835265365</v>
       </c>
       <c r="C8" t="n">
-        <v>1083.72289859321</v>
+        <v>773.7465554689228</v>
       </c>
       <c r="D8" t="n">
-        <v>725.4571999864597</v>
+        <v>773.7465554689228</v>
       </c>
       <c r="E8" t="n">
-        <v>545.2988805405387</v>
+        <v>773.7465554689228</v>
       </c>
       <c r="F8" t="n">
-        <v>134.3129757509312</v>
+        <v>766.8010547197193</v>
       </c>
       <c r="G8" t="n">
-        <v>122.3223344947425</v>
+        <v>350.7700094231265</v>
       </c>
       <c r="H8" t="n">
-        <v>122.3223344947425</v>
+        <v>43.36919653809316</v>
       </c>
       <c r="I8" t="n">
-        <v>43.36919653809311</v>
+        <v>43.36919653809316</v>
       </c>
       <c r="J8" t="n">
-        <v>152.5078184301901</v>
+        <v>152.507818430191</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232718</v>
+        <v>366.8168396232736</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711869</v>
+        <v>669.5878927711894</v>
       </c>
       <c r="M8" t="n">
-        <v>1038.14846457873</v>
+        <v>1038.148464578733</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.286540135168</v>
+        <v>1417.286540135171</v>
       </c>
       <c r="O8" t="n">
-        <v>1761.960612545598</v>
+        <v>1761.960612545601</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.630958172449</v>
+        <v>2021.630958172452</v>
       </c>
       <c r="Q8" t="n">
-        <v>2168.459826904656</v>
+        <v>2168.459826904658</v>
       </c>
       <c r="R8" t="n">
-        <v>2168.459826904656</v>
+        <v>2168.459826904658</v>
       </c>
       <c r="S8" t="n">
-        <v>2036.325171642786</v>
+        <v>2036.325171642789</v>
       </c>
       <c r="T8" t="n">
-        <v>1826.151173794702</v>
+        <v>2036.325171642789</v>
       </c>
       <c r="U8" t="n">
-        <v>1826.151173794702</v>
+        <v>1782.718007305298</v>
       </c>
       <c r="V8" t="n">
-        <v>1826.151173794702</v>
+        <v>1782.718007305298</v>
       </c>
       <c r="W8" t="n">
-        <v>1826.151173794702</v>
+        <v>1782.718007305298</v>
       </c>
       <c r="X8" t="n">
-        <v>1452.685415533622</v>
+        <v>1782.718007305298</v>
       </c>
       <c r="Y8" t="n">
-        <v>1452.685415533622</v>
+        <v>1392.578675329487</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>621.4494574170936</v>
+        <v>514.8569251016136</v>
       </c>
       <c r="C9" t="n">
-        <v>446.9964281359667</v>
+        <v>475.7141579573436</v>
       </c>
       <c r="D9" t="n">
-        <v>298.0620184747154</v>
+        <v>326.7797482960923</v>
       </c>
       <c r="E9" t="n">
-        <v>138.8245634692599</v>
+        <v>326.7797482960923</v>
       </c>
       <c r="F9" t="n">
-        <v>138.8245634692599</v>
+        <v>180.2451903229772</v>
       </c>
       <c r="G9" t="n">
-        <v>138.8245634692599</v>
+        <v>43.36919653809316</v>
       </c>
       <c r="H9" t="n">
-        <v>43.36919653809311</v>
+        <v>43.36919653809316</v>
       </c>
       <c r="I9" t="n">
-        <v>43.36919653809311</v>
+        <v>43.36919653809316</v>
       </c>
       <c r="J9" t="n">
-        <v>89.55356510562336</v>
+        <v>89.55356510562348</v>
       </c>
       <c r="K9" t="n">
-        <v>246.6448318504523</v>
+        <v>246.6448318504525</v>
       </c>
       <c r="L9" t="n">
-        <v>504.1959674104402</v>
+        <v>504.1959674104406</v>
       </c>
       <c r="M9" t="n">
-        <v>824.1028628789497</v>
+        <v>824.1028628789504</v>
       </c>
       <c r="N9" t="n">
         <v>1166.885386873582</v>
       </c>
       <c r="O9" t="n">
-        <v>1458.244633128148</v>
+        <v>1458.244633128149</v>
       </c>
       <c r="P9" t="n">
-        <v>1672.753048689049</v>
+        <v>1672.75304868905</v>
       </c>
       <c r="Q9" t="n">
-        <v>1766.227047333489</v>
+        <v>1766.22704733349</v>
       </c>
       <c r="R9" t="n">
-        <v>1734.238298972666</v>
+        <v>1734.238298972668</v>
       </c>
       <c r="S9" t="n">
-        <v>1595.273638474384</v>
+        <v>1595.273638474386</v>
       </c>
       <c r="T9" t="n">
-        <v>1400.56331694836</v>
+        <v>1400.563316948362</v>
       </c>
       <c r="U9" t="n">
-        <v>1232.668402874437</v>
+        <v>1172.461727081626</v>
       </c>
       <c r="V9" t="n">
-        <v>997.5162946426944</v>
+        <v>937.3096188498832</v>
       </c>
       <c r="W9" t="n">
-        <v>997.5162946426944</v>
+        <v>683.0722621216817</v>
       </c>
       <c r="X9" t="n">
-        <v>789.6647944371616</v>
+        <v>683.0722621216817</v>
       </c>
       <c r="Y9" t="n">
-        <v>789.6647944371616</v>
+        <v>683.0722621216817</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>292.2997961425829</v>
+        <v>43.36919653809316</v>
       </c>
       <c r="C10" t="n">
-        <v>292.2997961425829</v>
+        <v>43.36919653809316</v>
       </c>
       <c r="D10" t="n">
-        <v>292.2997961425829</v>
+        <v>43.36919653809316</v>
       </c>
       <c r="E10" t="n">
-        <v>144.3867025601897</v>
+        <v>43.36919653809316</v>
       </c>
       <c r="F10" t="n">
-        <v>144.3867025601897</v>
+        <v>43.36919653809316</v>
       </c>
       <c r="G10" t="n">
-        <v>43.36919653809311</v>
+        <v>43.36919653809316</v>
       </c>
       <c r="H10" t="n">
-        <v>43.36919653809311</v>
+        <v>43.36919653809316</v>
       </c>
       <c r="I10" t="n">
-        <v>43.36919653809311</v>
+        <v>43.36919653809316</v>
       </c>
       <c r="J10" t="n">
-        <v>43.36919653809311</v>
+        <v>43.36919653809316</v>
       </c>
       <c r="K10" t="n">
-        <v>92.71685897981541</v>
+        <v>92.71685897981553</v>
       </c>
       <c r="L10" t="n">
-        <v>185.7706748018945</v>
+        <v>185.7706748018947</v>
       </c>
       <c r="M10" t="n">
-        <v>287.1411594927338</v>
+        <v>287.1411594927341</v>
       </c>
       <c r="N10" t="n">
-        <v>393.9588065377468</v>
+        <v>393.9588065377472</v>
       </c>
       <c r="O10" t="n">
-        <v>472.3091036033668</v>
+        <v>472.3091036033673</v>
       </c>
       <c r="P10" t="n">
-        <v>520.2893470406002</v>
+        <v>520.2893470406008</v>
       </c>
       <c r="Q10" t="n">
-        <v>520.2893470406002</v>
+        <v>497.4664265514539</v>
       </c>
       <c r="R10" t="n">
-        <v>520.2893470406002</v>
+        <v>497.4664265514539</v>
       </c>
       <c r="S10" t="n">
-        <v>520.2893470406002</v>
+        <v>298.2869409356804</v>
       </c>
       <c r="T10" t="n">
-        <v>520.2893470406002</v>
+        <v>298.2869409356804</v>
       </c>
       <c r="U10" t="n">
-        <v>520.2893470406002</v>
+        <v>298.2869409356804</v>
       </c>
       <c r="V10" t="n">
-        <v>520.2893470406002</v>
+        <v>298.2869409356804</v>
       </c>
       <c r="W10" t="n">
-        <v>520.2893470406002</v>
+        <v>43.36919653809316</v>
       </c>
       <c r="X10" t="n">
-        <v>292.2997961425829</v>
+        <v>43.36919653809316</v>
       </c>
       <c r="Y10" t="n">
-        <v>292.2997961425829</v>
+        <v>43.36919653809316</v>
       </c>
     </row>
     <row r="11">
@@ -5033,55 +5033,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>352.5519571452613</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>352.5519571452613</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718132</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2252.221377756499</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>847.6442739835311</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C13" t="n">
-        <v>847.6442739835311</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711953</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888022</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1250.085317957301</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1029.292738813771</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="14">
@@ -5258,67 +5258,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>429.5088224239597</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>924.8344286397185</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M15" t="n">
-        <v>1522.21291626627</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N15" t="n">
-        <v>2149.810879820877</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>2149.810879820877</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
         <v>2516.421633107662</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2272.857469997002</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2272.857469997002</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1983.7822433412</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1729.097755135313</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5507,16 +5507,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,28 +5525,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,25 +5586,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K18" t="n">
-        <v>184.7035232280583</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L18" t="n">
-        <v>680.0291294438171</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438171</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
         <v>1859.536823237711</v>
@@ -5647,55 +5647,55 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>705.9324428257312</v>
+        <v>580.8993044876679</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257312</v>
+        <v>411.963121559761</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>261.8464821474253</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>261.8464821474253</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>261.8464821474253</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797189</v>
+        <v>94.65038286230521</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
         <v>2264.108249235165</v>
@@ -5704,19 +5704,19 @@
         <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1880.464695940366</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1625.780207734479</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1336.363037697518</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1108.373486799501</v>
+        <v>983.3403484614378</v>
       </c>
       <c r="Y19" t="n">
-        <v>887.5809076559709</v>
+        <v>762.5477693179076</v>
       </c>
     </row>
     <row r="20">
@@ -5729,70 +5729,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L21" t="n">
-        <v>738.7889117913855</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M21" t="n">
-        <v>1336.167399417938</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N21" t="n">
-        <v>1336.167399417938</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>847.644273983533</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711973</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888042</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797761</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910811</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853363</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580263</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580263</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235167</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258108</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602306</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1754.779756989948</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1465.362586952987</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1237.37303605497</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1016.58045691144</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5981,16 +5981,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,37 +5999,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,31 +6060,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>172.349019141113</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>506.2737913123336</v>
+        <v>315.9123021921476</v>
       </c>
       <c r="L24" t="n">
-        <v>506.2737913123336</v>
+        <v>315.9123021921476</v>
       </c>
       <c r="M24" t="n">
-        <v>1103.652278938886</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="N24" t="n">
-        <v>1731.250242493492</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O24" t="n">
-        <v>2283.159972732779</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>538.7363435406111</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D25" t="n">
-        <v>388.6197041282754</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E25" t="n">
-        <v>240.7066105458823</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797189</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6154,43 +6154,43 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910811</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853363</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580262</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235167</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258108</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6215,16 +6215,16 @@
         <v>793.7736536168616</v>
       </c>
       <c r="G26" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075811</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>740.5562989961526</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M27" t="n">
-        <v>1231.938859683104</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N27" t="n">
-        <v>1859.536823237711</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876706</v>
+        <v>639.6425904082687</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597637</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D28" t="n">
-        <v>261.846482147428</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E28" t="n">
-        <v>261.0127623330919</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797189</v>
@@ -6397,37 +6397,37 @@
         <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853363</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580262</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235167</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258108</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602305</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396419</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359458</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614405</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179104</v>
+        <v>821.2910552385084</v>
       </c>
     </row>
     <row r="29">
@@ -6458,13 +6458,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6476,7 +6476,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6543,25 +6543,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>577.3880777468471</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969303</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951537</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190824</v>
+        <v>1888.077129657224</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876693</v>
+        <v>554.5813165460181</v>
       </c>
       <c r="C31" t="n">
-        <v>411.9631215597624</v>
+        <v>385.6451336181112</v>
       </c>
       <c r="D31" t="n">
-        <v>388.6197041282753</v>
+        <v>235.5284942057755</v>
       </c>
       <c r="E31" t="n">
-        <v>240.7066105458822</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614391</v>
+        <v>957.022360519788</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.547769317909</v>
+        <v>736.2297813762578</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6677,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6695,25 +6695,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694708</v>
@@ -6777,22 +6777,22 @@
         <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273906</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>429.5088224239597</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>924.8344286397185</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1522.21291626627</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N33" t="n">
-        <v>2149.810879820877</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O33" t="n">
-        <v>2149.810879820877</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
         <v>2283.159972732779</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>870.3164745246319</v>
+        <v>695.5020655703128</v>
       </c>
       <c r="C34" t="n">
-        <v>701.380291596725</v>
+        <v>526.5658826424059</v>
       </c>
       <c r="D34" t="n">
-        <v>551.2636521843892</v>
+        <v>526.5658826424059</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>526.5658826424059</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>379.6759351444955</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782976</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038364</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797765</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910811</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853363</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580263</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580263</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235167</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258108</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602306</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396419</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W34" t="n">
-        <v>1500.747069396419</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X34" t="n">
-        <v>1272.757518498402</v>
+        <v>916.2946447138429</v>
       </c>
       <c r="Y34" t="n">
-        <v>1051.964939354872</v>
+        <v>695.5020655703128</v>
       </c>
     </row>
     <row r="35">
@@ -6929,46 +6929,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
         <v>3820.749612123003</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>579.1554649516144</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M36" t="n">
-        <v>1140.291933891999</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N36" t="n">
-        <v>1767.889897446606</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2319.799627685893</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>869.6905094135296</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C37" t="n">
-        <v>700.7543264856228</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D37" t="n">
-        <v>550.637687073287</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782958</v>
@@ -7105,40 +7105,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.963083580263</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580262</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235166</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258107</v>
+        <v>1977.461080510511</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602305</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396418</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359457</v>
+        <v>1144.284195611861</v>
       </c>
       <c r="X37" t="n">
-        <v>1051.338974243769</v>
+        <v>916.2946447138434</v>
       </c>
       <c r="Y37" t="n">
-        <v>1051.338974243769</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7160,7 +7160,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,19 +7169,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355938</v>
@@ -7254,22 +7254,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349513</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>2148.04349261611</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>800.5007694647295</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>631.5645865368226</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D40" t="n">
-        <v>481.4479471244869</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E40" t="n">
-        <v>333.5348535420937</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797189</v>
@@ -7348,34 +7348,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853363</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580262</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235167</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2264.108249235167</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1975.033022579364</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1720.348534373477</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1430.931364336517</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1202.941813438499</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>982.1492342949692</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7388,70 +7388,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273906</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>95.58405025273906</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>95.58405025273906</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>692.9625378792909</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N42" t="n">
-        <v>1320.560501433898</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>1872.470231673185</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2296.093381168253</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2529.355041543136</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.306025422648</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C43" t="n">
-        <v>929.3698424947406</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D43" t="n">
-        <v>779.2532030824049</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E43" t="n">
-        <v>631.3401095000117</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F43" t="n">
-        <v>484.4501620021027</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G43" t="n">
-        <v>317.2540627169827</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.5422315591808</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782958</v>
@@ -7591,28 +7591,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1474.429081454764</v>
       </c>
       <c r="W43" t="n">
-        <v>1500.747069396417</v>
+        <v>1185.011911417804</v>
       </c>
       <c r="X43" t="n">
-        <v>1500.747069396417</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y43" t="n">
-        <v>1279.954490252887</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="44">
@@ -7634,28 +7634,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
         <v>2950.898526355938</v>
@@ -7664,10 +7664,10 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398594</v>
@@ -7722,22 +7722,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M45" t="n">
-        <v>1231.938859683104</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
-        <v>1859.536823237711</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
         <v>1859.536823237711</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>931.4710609784063</v>
+        <v>701.4712640439268</v>
       </c>
       <c r="C46" t="n">
-        <v>762.5348780504994</v>
+        <v>532.5350811160199</v>
       </c>
       <c r="D46" t="n">
-        <v>612.4182386381636</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E46" t="n">
-        <v>464.5051450557705</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F46" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797189</v>
@@ -7834,22 +7834,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1561.901655850193</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>1113.119525808646</v>
+        <v>883.1197288741665</v>
       </c>
     </row>
   </sheetData>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>46.6720694736147</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
     </row>
     <row r="14">
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,10 +23701,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>75.03697526434014</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>139.4693302300339</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012015</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>123.7828069546813</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>251.4923607175937</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>124.9899273367992</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>125.5054897610387</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>145.6085800303765</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>124.531099771515</v>
       </c>
     </row>
     <row r="29">
@@ -24841,19 +24841,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>125.5054897610402</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856552</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>40.32043864788699</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>4.506629716716134</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>104.0840080814998</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25324,7 +25324,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25375,10 +25375,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>67.31863952450604</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>186.7544012944526</v>
       </c>
     </row>
     <row r="38">
@@ -25549,7 +25549,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25558,13 +25558,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>48.39475227997448</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856552</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25792,19 +25792,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0.3575234924687152</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25843,13 +25843,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>40.32043864788534</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26029,7 +26029,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,7 +26074,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26083,13 +26083,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>196.0358353086627</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>185.7414866708165</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>882321.2498270524</v>
+        <v>882321.2498270522</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>882321.2498270524</v>
+        <v>882321.2498270522</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>882321.2498270524</v>
+        <v>882321.2498270522</v>
       </c>
     </row>
     <row r="9">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>882321.2498270522</v>
+        <v>882321.2498270524</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>882321.2498270524</v>
+        <v>882321.2498270522</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583913</v>
+        <v>554203.1946583912</v>
       </c>
       <c r="C2" t="n">
         <v>554203.1946583913</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583915</v>
+        <v>554203.1946583913</v>
       </c>
       <c r="E2" t="n">
-        <v>544823.9547907544</v>
+        <v>544823.9547907539</v>
       </c>
       <c r="F2" t="n">
+        <v>544823.9547907538</v>
+      </c>
+      <c r="G2" t="n">
+        <v>544823.9547907537</v>
+      </c>
+      <c r="H2" t="n">
+        <v>544823.9547907538</v>
+      </c>
+      <c r="I2" t="n">
         <v>544823.954790754</v>
       </c>
-      <c r="G2" t="n">
-        <v>544823.954790754</v>
-      </c>
-      <c r="H2" t="n">
-        <v>544823.9547907545</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
+        <v>544823.9547907539</v>
+      </c>
+      <c r="K2" t="n">
         <v>544823.9547907542</v>
       </c>
-      <c r="J2" t="n">
-        <v>544823.9547907542</v>
-      </c>
-      <c r="K2" t="n">
-        <v>544823.9547907538</v>
-      </c>
       <c r="L2" t="n">
-        <v>544823.9547907542</v>
+        <v>544823.9547907541</v>
       </c>
       <c r="M2" t="n">
         <v>544823.9547907541</v>
       </c>
       <c r="N2" t="n">
-        <v>544823.9547907541</v>
+        <v>544823.9547907539</v>
       </c>
       <c r="O2" t="n">
+        <v>544823.954790754</v>
+      </c>
+      <c r="P2" t="n">
         <v>544823.9547907539</v>
-      </c>
-      <c r="P2" t="n">
-        <v>544823.9547907545</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208456</v>
+        <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>270592.362025312</v>
+        <v>270592.3620253102</v>
       </c>
       <c r="D3" t="n">
-        <v>115410.0540231939</v>
+        <v>115410.0540231963</v>
       </c>
       <c r="E3" t="n">
-        <v>601443.2075742646</v>
+        <v>601443.2075742639</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,22 +26381,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
         <v>49064.94472854465</v>
       </c>
       <c r="K3" t="n">
-        <v>62913.63765881959</v>
+        <v>62913.63765881925</v>
       </c>
       <c r="L3" t="n">
-        <v>27875.25362197514</v>
+        <v>27875.25362197572</v>
       </c>
       <c r="M3" t="n">
-        <v>157146.3805515978</v>
+        <v>157146.3805515977</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>278536.5648341298</v>
+        <v>278536.5648341299</v>
       </c>
       <c r="C4" t="n">
-        <v>206604.4229263462</v>
+        <v>206604.4229263468</v>
       </c>
       <c r="D4" t="n">
-        <v>174202.9900888975</v>
+        <v>174202.9900888973</v>
       </c>
       <c r="E4" t="n">
         <v>15436.64000687967</v>
@@ -26430,7 +26430,7 @@
         <v>15436.64000687967</v>
       </c>
       <c r="G4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687966</v>
       </c>
       <c r="H4" t="n">
         <v>15436.64000687967</v>
@@ -26439,25 +26439,25 @@
         <v>15436.64000687967</v>
       </c>
       <c r="J4" t="n">
+        <v>15436.64000687965</v>
+      </c>
+      <c r="K4" t="n">
         <v>15436.64000687967</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>15436.64000687966</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>15436.64000687967</v>
       </c>
-      <c r="M4" t="n">
-        <v>15436.64000687966</v>
-      </c>
       <c r="N4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687965</v>
       </c>
       <c r="O4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687969</v>
       </c>
       <c r="P4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687965</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161359</v>
+        <v>56985.80041161357</v>
       </c>
       <c r="C5" t="n">
-        <v>76435.73471936816</v>
+        <v>76435.73471936803</v>
       </c>
       <c r="D5" t="n">
-        <v>85199.0818558723</v>
+        <v>85199.08185587233</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26522,46 +26522,46 @@
         <v>-372676.0731081977</v>
       </c>
       <c r="C6" t="n">
-        <v>570.6749873649096</v>
+        <v>570.6749873662047</v>
       </c>
       <c r="D6" t="n">
-        <v>179391.0686904278</v>
+        <v>179391.0686904253</v>
       </c>
       <c r="E6" t="n">
-        <v>-173178.422614297</v>
+        <v>-173213.1605397325</v>
       </c>
       <c r="F6" t="n">
-        <v>428264.7849599672</v>
+        <v>428230.0470345312</v>
       </c>
       <c r="G6" t="n">
-        <v>428264.7849599672</v>
+        <v>428230.0470345311</v>
       </c>
       <c r="H6" t="n">
-        <v>428264.7849599675</v>
+        <v>428230.0470345312</v>
       </c>
       <c r="I6" t="n">
-        <v>428264.7849599675</v>
+        <v>428230.0470345314</v>
       </c>
       <c r="J6" t="n">
-        <v>379199.8402314227</v>
+        <v>379165.1023059867</v>
       </c>
       <c r="K6" t="n">
-        <v>365351.1473011474</v>
+        <v>365316.4093757125</v>
       </c>
       <c r="L6" t="n">
-        <v>400389.5313379923</v>
+        <v>400354.7934125559</v>
       </c>
       <c r="M6" t="n">
-        <v>271118.4044083695</v>
+        <v>271083.6664829339</v>
       </c>
       <c r="N6" t="n">
-        <v>428264.7849599673</v>
+        <v>428230.0470345314</v>
       </c>
       <c r="O6" t="n">
-        <v>428264.7849599671</v>
+        <v>428230.0470345315</v>
       </c>
       <c r="P6" t="n">
-        <v>428264.7849599677</v>
+        <v>428230.0470345314</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129048</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>758.8996292950615</v>
+        <v>758.8996292950599</v>
       </c>
       <c r="D3" t="n">
-        <v>853.7106645376848</v>
+        <v>853.7106645376851</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,28 +26787,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>431.9757039594709</v>
+        <v>431.9757039594692</v>
       </c>
       <c r="D4" t="n">
-        <v>542.1149567261639</v>
+        <v>542.1149567261646</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099649</v>
@@ -26820,13 +26820,13 @@
         <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099649</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129048</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>210.4296883821567</v>
+        <v>210.4296883821553</v>
       </c>
       <c r="D3" t="n">
-        <v>94.81103524262335</v>
+        <v>94.81103524262528</v>
       </c>
       <c r="E3" t="n">
-        <v>514.2648358039892</v>
+        <v>514.2648358039886</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,10 +26975,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="I3" t="n">
-        <v>-2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>244.4501167931509</v>
+        <v>244.4501167931493</v>
       </c>
       <c r="D4" t="n">
-        <v>110.1392527666929</v>
+        <v>110.1392527666954</v>
       </c>
       <c r="E4" t="n">
-        <v>630.5933313734847</v>
+        <v>630.5933313734838</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27036,13 +27036,13 @@
         <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931506</v>
+        <v>244.4501167931493</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666932</v>
+        <v>110.1392527666954</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734845</v>
+        <v>630.5933313734838</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931509</v>
+        <v>244.4501167931493</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666929</v>
+        <v>110.1392527666954</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734847</v>
+        <v>630.5933313734838</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,10 +27379,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>177.7473046046875</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>167.1574544543629</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27394,10 +27394,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>316.8938261062223</v>
+        <v>157.9728428959492</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27436,7 +27436,7 @@
         <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
-        <v>230.8855453062065</v>
+        <v>140.226671303815</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27458,28 +27458,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>98.25744625564542</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27506,13 +27506,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920012</v>
+        <v>87.85286806636591</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8637684100909</v>
+        <v>38.33818124377105</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27521,7 +27521,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>18.24739803715761</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27555,13 +27555,13 @@
         <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
-        <v>73.491273516432</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825414</v>
+        <v>57.06999962825418</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402848</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,13 +27576,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709382</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159722</v>
+        <v>68.68604055159726</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106904</v>
+        <v>98.71403242334981</v>
       </c>
       <c r="S4" t="n">
         <v>206.7802557954962</v>
@@ -27622,10 +27622,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>308.2302560714735</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.34943640818037</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>23.94240680425912</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>139.4987618372557</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27673,10 +27673,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>153.324871760709</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27692,28 +27692,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>135.7111670171797</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>96.47037835246135</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>43.32085084937528</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27755,13 +27755,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>143.9632881223922</v>
       </c>
       <c r="Y6" t="n">
-        <v>83.89661165240084</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27789,13 +27789,13 @@
         <v>166.6224718302218</v>
       </c>
       <c r="H7" t="n">
-        <v>150.0598964836597</v>
+        <v>150.0598964836598</v>
       </c>
       <c r="I7" t="n">
-        <v>114.295721259913</v>
+        <v>114.2957212599131</v>
       </c>
       <c r="J7" t="n">
-        <v>30.24193919304051</v>
+        <v>30.24193919304071</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,19 +27816,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>36.91115760589156</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>115.7603165166225</v>
       </c>
       <c r="S7" t="n">
         <v>200.1672441130603</v>
       </c>
       <c r="T7" t="n">
-        <v>222.0983299894507</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2443834913144</v>
+        <v>213.3454877503069</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>2.436586532364942</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>135.3629347725298</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>203.5736338208</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>304.326804756183</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>78.16360657708285</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,10 +27904,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>208.0722578696038</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27916,10 +27916,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27932,25 +27932,25 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>133.9571595154884</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470352</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>94.50081326185511</v>
       </c>
       <c r="I9" t="n">
-        <v>36.2994675790488</v>
+        <v>36.29946757904878</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27986,16 +27986,16 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>59.60460903488453</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28017,13 +28017,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>66.44417014905613</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H10" t="n">
         <v>148.5398113612452</v>
@@ -28032,7 +28032,7 @@
         <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
-        <v>18.15430933923916</v>
+        <v>18.15430933923912</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.59469128425545</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>108.0728512656385</v>
       </c>
       <c r="S10" t="n">
-        <v>197.1876907596158</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>221.3678187343026</v>
@@ -28071,10 +28071,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>34.15443138297965</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28257,7 +28257,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1.885306725550132e-12</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28767,7 +28767,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>1.508245380440106e-12</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -28785,7 +28785,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>-8.483880264975597e-13</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -28986,7 +28986,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -29226,7 +29226,7 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>1.508245380440106e-12</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29469,7 +29469,7 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -29515,7 +29515,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -29755,7 +29755,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>-5.115907697472721e-13</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -29928,7 +29928,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>1.885306725550132e-12</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -29949,7 +29949,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>1.696776052995119e-12</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -30046,7 +30046,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>-1.386056343235277e-13</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -30177,13 +30177,13 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>1.885306725550132e-12</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>1.131184035330079e-12</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30420,7 +30420,7 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -30469,10 +30469,10 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G41" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30627,7 +30627,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -30706,7 +30706,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -31042,46 +31042,46 @@
         <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954486</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043123</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655544</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K2" t="n">
-        <v>280.472093452864</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672894</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470275</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470026</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622681</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244296</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151093</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974684</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619225</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924584</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061602</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,13 +31118,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435305</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590852</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
@@ -31133,34 +31133,34 @@
         <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405033</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975331</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829655</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292674</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628873</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
         <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.2466083355008</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288821</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820371</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390166</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445823</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620019</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639163</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114197</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
@@ -31221,25 +31221,25 @@
         <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592434</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
         <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784863</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647912</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S4" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181396</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061364</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.050852781085672</v>
+        <v>3.050852781085665</v>
       </c>
       <c r="H5" t="n">
-        <v>31.24454604429365</v>
+        <v>31.24454604429358</v>
       </c>
       <c r="I5" t="n">
-        <v>117.6180018428055</v>
+        <v>117.6180018428052</v>
       </c>
       <c r="J5" t="n">
-        <v>258.9373162286703</v>
+        <v>258.9373162286697</v>
       </c>
       <c r="K5" t="n">
-        <v>388.0799144520269</v>
+        <v>388.0799144520261</v>
       </c>
       <c r="L5" t="n">
-        <v>481.4474502511776</v>
+        <v>481.4474502511766</v>
       </c>
       <c r="M5" t="n">
-        <v>535.7030533968099</v>
+        <v>535.7030533968087</v>
       </c>
       <c r="N5" t="n">
-        <v>544.3712888610696</v>
+        <v>544.3712888610685</v>
       </c>
       <c r="O5" t="n">
-        <v>514.0343715191489</v>
+        <v>514.0343715191478</v>
       </c>
       <c r="P5" t="n">
-        <v>438.7164434860963</v>
+        <v>438.7164434860954</v>
       </c>
       <c r="Q5" t="n">
-        <v>329.4577782634656</v>
+        <v>329.4577782634649</v>
       </c>
       <c r="R5" t="n">
-        <v>191.643131009873</v>
+        <v>191.6431310098726</v>
       </c>
       <c r="S5" t="n">
-        <v>69.52130774898981</v>
+        <v>69.52130774898967</v>
       </c>
       <c r="T5" t="n">
-        <v>13.35510804920253</v>
+        <v>13.35510804920251</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2440682224868537</v>
+        <v>0.2440682224868532</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.632350146030887</v>
+        <v>1.632350146030884</v>
       </c>
       <c r="H6" t="n">
-        <v>15.76506588403515</v>
+        <v>15.76506588403512</v>
       </c>
       <c r="I6" t="n">
-        <v>56.20152915062484</v>
+        <v>56.20152915062472</v>
       </c>
       <c r="J6" t="n">
-        <v>154.2212916475936</v>
+        <v>154.2212916475933</v>
       </c>
       <c r="K6" t="n">
-        <v>263.588751431663</v>
+        <v>263.5887514316624</v>
       </c>
       <c r="L6" t="n">
-        <v>354.4276051721889</v>
+        <v>354.4276051721881</v>
       </c>
       <c r="M6" t="n">
-        <v>413.6002979658085</v>
+        <v>413.6002979658076</v>
       </c>
       <c r="N6" t="n">
-        <v>424.5470671468665</v>
+        <v>424.5470671468656</v>
       </c>
       <c r="O6" t="n">
-        <v>388.3776244374453</v>
+        <v>388.3776244374445</v>
       </c>
       <c r="P6" t="n">
-        <v>311.707283587249</v>
+        <v>311.7072835872483</v>
       </c>
       <c r="Q6" t="n">
-        <v>208.3680642547497</v>
+        <v>208.3680642547493</v>
       </c>
       <c r="R6" t="n">
-        <v>101.348897663216</v>
+        <v>101.3488976632158</v>
       </c>
       <c r="S6" t="n">
-        <v>30.3201880194772</v>
+        <v>30.32018801947714</v>
       </c>
       <c r="T6" t="n">
-        <v>6.57951659737888</v>
+        <v>6.579516597378865</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1073914569757163</v>
+        <v>0.1073914569757161</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.368507528236996</v>
+        <v>1.368507528236993</v>
       </c>
       <c r="H7" t="n">
-        <v>12.16727602377984</v>
+        <v>12.16727602377982</v>
       </c>
       <c r="I7" t="n">
-        <v>41.15475366734531</v>
+        <v>41.15475366734522</v>
       </c>
       <c r="J7" t="n">
-        <v>96.7534822463556</v>
+        <v>96.7534822463554</v>
       </c>
       <c r="K7" t="n">
-        <v>158.99569282608</v>
+        <v>158.9956928260797</v>
       </c>
       <c r="L7" t="n">
-        <v>203.459746516253</v>
+        <v>203.4597465162526</v>
       </c>
       <c r="M7" t="n">
-        <v>214.5197755399138</v>
+        <v>214.5197755399134</v>
       </c>
       <c r="N7" t="n">
-        <v>209.4189747528488</v>
+        <v>209.4189747528484</v>
       </c>
       <c r="O7" t="n">
-        <v>193.4323186275347</v>
+        <v>193.4323186275343</v>
       </c>
       <c r="P7" t="n">
-        <v>165.5147650514999</v>
+        <v>165.5147650514995</v>
       </c>
       <c r="Q7" t="n">
-        <v>114.5938440235543</v>
+        <v>114.593844023554</v>
       </c>
       <c r="R7" t="n">
-        <v>61.5330748605471</v>
+        <v>61.53307486054696</v>
       </c>
       <c r="S7" t="n">
-        <v>23.849353923912</v>
+        <v>23.84935392391195</v>
       </c>
       <c r="T7" t="n">
-        <v>5.847259438830799</v>
+        <v>5.847259438830787</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07464586517656351</v>
+        <v>0.07464586517656334</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.432002671508278</v>
+        <v>3.432002671508279</v>
       </c>
       <c r="H8" t="n">
-        <v>35.14799735958416</v>
+        <v>35.14799735958417</v>
       </c>
       <c r="I8" t="n">
-        <v>132.312282993323</v>
+        <v>132.3122829933231</v>
       </c>
       <c r="J8" t="n">
-        <v>291.286936740926</v>
+        <v>291.2869367409261</v>
       </c>
       <c r="K8" t="n">
-        <v>436.5636098258715</v>
+        <v>436.5636098258717</v>
       </c>
       <c r="L8" t="n">
-        <v>541.5957615840431</v>
+        <v>541.5957615840433</v>
       </c>
       <c r="M8" t="n">
-        <v>602.6296390934783</v>
+        <v>602.6296390934787</v>
       </c>
       <c r="N8" t="n">
-        <v>612.3808166839013</v>
+        <v>612.3808166839016</v>
       </c>
       <c r="O8" t="n">
-        <v>578.2538401190908</v>
+        <v>578.253840119091</v>
       </c>
       <c r="P8" t="n">
-        <v>493.5262741662302</v>
+        <v>493.5262741662303</v>
       </c>
       <c r="Q8" t="n">
-        <v>370.6176784928398</v>
+        <v>370.61767849284</v>
       </c>
       <c r="R8" t="n">
-        <v>215.5855378141321</v>
+        <v>215.5855378141322</v>
       </c>
       <c r="S8" t="n">
-        <v>78.20676087699496</v>
+        <v>78.20676087699499</v>
       </c>
       <c r="T8" t="n">
-        <v>15.02359169452749</v>
+        <v>15.0235916945275</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2745602137206622</v>
+        <v>0.2745602137206623</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31595,46 +31595,46 @@
         <v>1.836283316175398</v>
       </c>
       <c r="H9" t="n">
-        <v>17.73463097464134</v>
+        <v>17.73463097464135</v>
       </c>
       <c r="I9" t="n">
-        <v>63.2229124209512</v>
+        <v>63.22291242095122</v>
       </c>
       <c r="J9" t="n">
-        <v>173.4885040076063</v>
+        <v>173.4885040076064</v>
       </c>
       <c r="K9" t="n">
-        <v>296.5194861913579</v>
+        <v>296.5194861913581</v>
       </c>
       <c r="L9" t="n">
-        <v>398.7070419616801</v>
+        <v>398.7070419616803</v>
       </c>
       <c r="M9" t="n">
-        <v>465.2723121730381</v>
+        <v>465.2723121730384</v>
       </c>
       <c r="N9" t="n">
-        <v>477.5866858152847</v>
+        <v>477.5866858152849</v>
       </c>
       <c r="O9" t="n">
-        <v>436.8985133884509</v>
+        <v>436.898513388451</v>
       </c>
       <c r="P9" t="n">
-        <v>350.6495746475634</v>
+        <v>350.6495746475636</v>
       </c>
       <c r="Q9" t="n">
-        <v>234.3999545349508</v>
+        <v>234.3999545349509</v>
       </c>
       <c r="R9" t="n">
-        <v>114.0106430867497</v>
+        <v>114.0106430867498</v>
       </c>
       <c r="S9" t="n">
-        <v>34.10815721053861</v>
+        <v>34.10815721053863</v>
       </c>
       <c r="T9" t="n">
-        <v>7.40151038405785</v>
+        <v>7.401510384057852</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1208081129062762</v>
+        <v>0.1208081129062763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.539478247526972</v>
+        <v>1.539478247526973</v>
       </c>
       <c r="H10" t="n">
-        <v>13.68736114619436</v>
+        <v>13.68736114619437</v>
       </c>
       <c r="I10" t="n">
-        <v>46.29630948017478</v>
+        <v>46.29630948017481</v>
       </c>
       <c r="J10" t="n">
-        <v>108.8411121001569</v>
+        <v>108.841112100157</v>
       </c>
       <c r="K10" t="n">
         <v>178.8593818490428</v>
       </c>
       <c r="L10" t="n">
-        <v>228.8784296368737</v>
+        <v>228.8784296368738</v>
       </c>
       <c r="M10" t="n">
         <v>241.3202129282508</v>
       </c>
       <c r="N10" t="n">
-        <v>235.582157642014</v>
+        <v>235.5821576420142</v>
       </c>
       <c r="O10" t="n">
-        <v>217.5982526595398</v>
+        <v>217.5982526595399</v>
       </c>
       <c r="P10" t="n">
-        <v>186.1928964099894</v>
+        <v>186.1928964099895</v>
       </c>
       <c r="Q10" t="n">
-        <v>128.9103103451904</v>
+        <v>128.9103103451905</v>
       </c>
       <c r="R10" t="n">
-        <v>69.22054011153094</v>
+        <v>69.22054011153097</v>
       </c>
       <c r="S10" t="n">
-        <v>26.82890727735641</v>
+        <v>26.82890727735642</v>
       </c>
       <c r="T10" t="n">
-        <v>6.577770693978881</v>
+        <v>6.577770693978883</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08397154077419859</v>
+        <v>0.08397154077419863</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>399.190220890813</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>202.2352659288688</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>344.2757660550399</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>504.2882996232035</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32315,37 +32315,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>227.8611086463986</v>
+        <v>181.9330708814852</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862124</v>
+        <v>698.850866879865</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>671.2522281007809</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32786,10 +32786,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>204.3779992811859</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>209.2370040367367</v>
       </c>
       <c r="L24" t="n">
         <v>138.5543797798742</v>
@@ -32804,10 +32804,10 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
@@ -33020,7 +33020,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33032,13 +33032,13 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>638.4800548179292</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>139.5228722182826</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214699</v>
@@ -33047,7 +33047,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742439</v>
@@ -33263,28 +33263,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>282.8216163968498</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>533.0479862785273</v>
       </c>
       <c r="Q30" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742439</v>
@@ -33497,7 +33497,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422586</v>
@@ -33506,7 +33506,7 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>301.1823051500296</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071786</v>
@@ -33515,7 +33515,7 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>268.6704608606959</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
         <v>375.5996128485291</v>
@@ -33731,34 +33731,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>423.9151577118737</v>
       </c>
       <c r="M36" t="n">
-        <v>708.9385480032147</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742439</v>
@@ -33974,7 +33974,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>326.7634969305192</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473073</v>
@@ -33986,13 +33986,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>316.0872899694772</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34205,22 +34205,22 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>368.6279838366847</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437244</v>
@@ -34232,7 +34232,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>169.6252075171348</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742439</v>
@@ -34442,10 +34442,10 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422586</v>
@@ -34454,13 +34454,13 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>301.1823051500296</v>
+        <v>530.5785304507785</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214699</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868137</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788344</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973021</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197548</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504117</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405814</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656916001</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065984</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781475</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606292</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755148</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996322</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
-        <v>138.091009184823</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855702</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440765002</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,16 +34860,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646083</v>
+        <v>12.15921574646077</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061158</v>
+        <v>16.11138312061152</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520832</v>
+        <v>23.66518529520826</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400581</v>
+        <v>1.340357307400524</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>77.891411701984</v>
+        <v>77.89141170198343</v>
       </c>
       <c r="K5" t="n">
-        <v>167.9900634070463</v>
+        <v>167.9900634070455</v>
       </c>
       <c r="L5" t="n">
-        <v>245.6810352811904</v>
+        <v>245.6810352811893</v>
       </c>
       <c r="M5" t="n">
-        <v>305.3568201695372</v>
+        <v>305.356820169536</v>
       </c>
       <c r="N5" t="n">
-        <v>314.9582252644787</v>
+        <v>314.9582252644776</v>
       </c>
       <c r="O5" t="n">
-        <v>283.9361600974621</v>
+        <v>283.9361600974611</v>
       </c>
       <c r="P5" t="n">
-        <v>207.4834477308268</v>
+        <v>207.4834477308258</v>
       </c>
       <c r="Q5" t="n">
-        <v>107.1520883890161</v>
+        <v>107.1520883890154</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>27.38366498092691</v>
+        <v>27.3836649809266</v>
       </c>
       <c r="K6" t="n">
-        <v>125.747312457304</v>
+        <v>125.7473124573035</v>
       </c>
       <c r="L6" t="n">
-        <v>215.8732253923147</v>
+        <v>215.8732253923139</v>
       </c>
       <c r="M6" t="n">
-        <v>271.4662640437901</v>
+        <v>271.4662640437892</v>
       </c>
       <c r="N6" t="n">
-        <v>293.2053550635333</v>
+        <v>293.2053550635324</v>
       </c>
       <c r="O6" t="n">
-        <v>245.7813799930008</v>
+        <v>245.781379993</v>
       </c>
       <c r="P6" t="n">
-        <v>177.7328761729187</v>
+        <v>177.7328761729181</v>
       </c>
       <c r="Q6" t="n">
-        <v>68.38629016872821</v>
+        <v>68.38629016872778</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>29.98243465554467</v>
+        <v>29.98243465554432</v>
       </c>
       <c r="L7" t="n">
-        <v>68.57507023501475</v>
+        <v>68.57507023501432</v>
       </c>
       <c r="M7" t="n">
-        <v>75.59399159230875</v>
+        <v>75.5939915923083</v>
       </c>
       <c r="N7" t="n">
-        <v>81.73343028761562</v>
+        <v>81.73343028761516</v>
       </c>
       <c r="O7" t="n">
-        <v>54.97578017569194</v>
+        <v>54.97578017569154</v>
       </c>
       <c r="P7" t="n">
-        <v>27.78676100235225</v>
+        <v>27.78676100235191</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>110.2410322142397</v>
+        <v>110.2410322142398</v>
       </c>
       <c r="K8" t="n">
-        <v>216.4737587808909</v>
+        <v>216.4737587808911</v>
       </c>
       <c r="L8" t="n">
-        <v>305.8293466140559</v>
+        <v>305.8293466140561</v>
       </c>
       <c r="M8" t="n">
-        <v>372.2834058662056</v>
+        <v>372.283405866206</v>
       </c>
       <c r="N8" t="n">
-        <v>382.9677530873104</v>
+        <v>382.9677530873107</v>
       </c>
       <c r="O8" t="n">
-        <v>348.155628697404</v>
+        <v>348.1556286974043</v>
       </c>
       <c r="P8" t="n">
-        <v>262.2932784109606</v>
+        <v>262.2932784109608</v>
       </c>
       <c r="Q8" t="n">
-        <v>148.3119886183904</v>
+        <v>148.3119886183905</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>46.65087734093964</v>
+        <v>46.6508773409397</v>
       </c>
       <c r="K9" t="n">
-        <v>158.6780472169989</v>
+        <v>158.6780472169991</v>
       </c>
       <c r="L9" t="n">
-        <v>260.1526621818059</v>
+        <v>260.1526621818061</v>
       </c>
       <c r="M9" t="n">
-        <v>323.1382782510198</v>
+        <v>323.13827825102</v>
       </c>
       <c r="N9" t="n">
-        <v>346.2449737319514</v>
+        <v>346.2449737319515</v>
       </c>
       <c r="O9" t="n">
-        <v>294.3022689440064</v>
+        <v>294.3022689440066</v>
       </c>
       <c r="P9" t="n">
-        <v>216.6751672332332</v>
+        <v>216.6751672332334</v>
       </c>
       <c r="Q9" t="n">
-        <v>94.41818044892926</v>
+        <v>94.41818044892935</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>49.84612367850738</v>
+        <v>49.84612367850744</v>
       </c>
       <c r="L10" t="n">
-        <v>93.99375335563545</v>
+        <v>93.99375335563556</v>
       </c>
       <c r="M10" t="n">
-        <v>102.3944289806457</v>
+        <v>102.3944289806458</v>
       </c>
       <c r="N10" t="n">
-        <v>107.8966131767808</v>
+        <v>107.896613176781</v>
       </c>
       <c r="O10" t="n">
-        <v>79.14171420769699</v>
+        <v>79.14171420769708</v>
       </c>
       <c r="P10" t="n">
-        <v>48.46489236084179</v>
+        <v>48.46489236084184</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>261.348781916454</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>68.26085851453861</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -35729,25 +35729,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>370.3138922088733</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>90.0196696720396</v>
+        <v>44.09163190712619</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754089</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.412613764194</v>
+        <v>556.7168329578467</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>528.6559836563365</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191329</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36434,10 +36434,10 @@
         <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>77.54037261451917</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>71.39556506237767</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36452,10 +36452,10 @@
         <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>37.00975247789214</v>
@@ -36522,7 +36522,7 @@
         <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010467</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36680,13 +36680,13 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>496.3460208959108</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>8.181160134949316</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071396</v>
@@ -36695,7 +36695,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36765,7 +36765,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060468</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36911,28 +36911,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>140.6875824748315</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>399.073578864197</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37154,7 +37154,7 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>159.0482712280113</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238454</v>
@@ -37163,7 +37163,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>134.6960534463657</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625076</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295531</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
         <v>264.332588409635</v>
@@ -37245,7 +37245,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572999001</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>285.3607779319996</v>
       </c>
       <c r="M36" t="n">
-        <v>566.8045140811963</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37473,13 +37473,13 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899094</v>
       </c>
       <c r="O37" t="n">
         <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
-        <v>295.6317733066261</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
         <v>120.4022572998984</v>
@@ -37622,7 +37622,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>188.9220579561602</v>
       </c>
       <c r="L39" t="n">
         <v>500.3288951674331</v>
@@ -37634,13 +37634,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>173.4910455250327</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37716,7 +37716,7 @@
         <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066263</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
         <v>120.4022572998984</v>
@@ -37853,22 +37853,22 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>237.2862717533515</v>
       </c>
       <c r="O42" t="n">
         <v>557.48457599928</v>
@@ -37880,7 +37880,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>23.94570355317081</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38090,10 +38090,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38102,13 +38102,13 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>159.0482712280113</v>
+        <v>388.4444965287602</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071396</v>
